--- a/docs/线路规划.xlsx
+++ b/docs/线路规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchDocuments\ROS2WithSPCK\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E78733C-0D6C-4285-8152-9CB52885B7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED17AC5-2B03-4BA4-84B2-13D579DA88A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{FB8E5D07-CA80-4170-BEE0-5CB1F5D31EF5}"/>
+    <workbookView xWindow="-16320" yWindow="3120" windowWidth="16440" windowHeight="28440" firstSheet="5" activeTab="5" xr2:uid="{FB8E5D07-CA80-4170-BEE0-5CB1F5D31EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="上海地铁17号线" sheetId="1" r:id="rId1"/>
@@ -1248,7 +1248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1318,6 +1318,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1371,12 +1374,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2951,7 +2948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C305B85C-10E4-482C-B26E-0F5B0745EBC2}">
   <dimension ref="A2:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView topLeftCell="A29" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2961,11 +2958,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="2"/>
@@ -2977,7 +2974,7 @@
       <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2987,7 +2984,7 @@
       <c r="B4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2997,7 +2994,7 @@
       <c r="B5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3007,7 +3004,7 @@
       <c r="B6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3017,7 +3014,7 @@
       <c r="B7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3027,7 +3024,7 @@
       <c r="B8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3037,7 +3034,7 @@
       <c r="B9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3047,7 +3044,7 @@
       <c r="B10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3057,7 +3054,7 @@
       <c r="B11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3067,7 +3064,7 @@
       <c r="B12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3077,7 +3074,7 @@
       <c r="B13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3087,7 +3084,7 @@
       <c r="B14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3097,7 +3094,7 @@
       <c r="B15" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3107,7 +3104,7 @@
       <c r="B16" s="4">
         <v>17</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3117,7 +3114,7 @@
       <c r="B17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3127,7 +3124,7 @@
       <c r="B18" s="4">
         <v>43099</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3137,7 +3134,7 @@
       <c r="B19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3147,7 +3144,7 @@
       <c r="B20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3157,7 +3154,7 @@
       <c r="B21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3173,11 +3170,11 @@
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="2"/>
@@ -3189,7 +3186,7 @@
       <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -3199,7 +3196,7 @@
       <c r="B26" s="4">
         <v>0</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -3209,7 +3206,7 @@
       <c r="B27" s="4">
         <v>1435</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -3219,7 +3216,7 @@
       <c r="B28" s="4">
         <v>-1</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -3229,7 +3226,7 @@
       <c r="B29" s="4">
         <v>100</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -3238,7 +3235,7 @@
       <c r="B30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="26"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
@@ -3247,7 +3244,7 @@
       <c r="B31" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="26"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
@@ -3256,7 +3253,7 @@
       <c r="B32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
@@ -3265,7 +3262,7 @@
       <c r="B33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="25"/>
+      <c r="C33" s="26"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
@@ -3274,7 +3271,7 @@
       <c r="B34" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
@@ -3283,7 +3280,7 @@
       <c r="B35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="25"/>
+      <c r="C35" s="26"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -3292,7 +3289,7 @@
       <c r="B36" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="25"/>
+      <c r="C36" s="26"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
@@ -3301,7 +3298,7 @@
       <c r="B37" s="4">
         <v>43099</v>
       </c>
-      <c r="C37" s="25"/>
+      <c r="C37" s="26"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
@@ -3310,7 +3307,7 @@
       <c r="B38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="25"/>
+      <c r="C38" s="26"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
@@ -3319,7 +3316,7 @@
       <c r="B39" s="4">
         <v>1500</v>
       </c>
-      <c r="C39" s="26"/>
+      <c r="C39" s="27"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
@@ -3332,11 +3329,11 @@
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3347,7 +3344,7 @@
       <c r="B43" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="26"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -3356,7 +3353,7 @@
       <c r="B44" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
@@ -3365,7 +3362,7 @@
       <c r="B45" s="4">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C45" s="25"/>
+      <c r="C45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
@@ -3374,7 +3371,7 @@
       <c r="B46" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="25"/>
+      <c r="C46" s="26"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
@@ -3383,7 +3380,7 @@
       <c r="B47" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="25"/>
+      <c r="C47" s="26"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
@@ -3392,7 +3389,7 @@
       <c r="B48" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="25"/>
+      <c r="C48" s="26"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
@@ -3401,7 +3398,7 @@
       <c r="B49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="25"/>
+      <c r="C49" s="26"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
@@ -3410,7 +3407,7 @@
       <c r="B50" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="25"/>
+      <c r="C50" s="26"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
@@ -3419,7 +3416,7 @@
       <c r="B51" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="25"/>
+      <c r="C51" s="26"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
@@ -3428,7 +3425,7 @@
       <c r="B52" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="25"/>
+      <c r="C52" s="26"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
@@ -3437,7 +3434,7 @@
       <c r="B53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="25"/>
+      <c r="C53" s="26"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
@@ -3446,7 +3443,7 @@
       <c r="B54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="25"/>
+      <c r="C54" s="26"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
@@ -3455,7 +3452,7 @@
       <c r="B55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="25"/>
+      <c r="C55" s="26"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
@@ -3464,7 +3461,7 @@
       <c r="B56" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="25"/>
+      <c r="C56" s="26"/>
     </row>
     <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
@@ -3473,7 +3470,7 @@
       <c r="B57" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="25"/>
+      <c r="C57" s="26"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
@@ -3482,7 +3479,7 @@
       <c r="B58" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="25"/>
+      <c r="C58" s="26"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
@@ -3491,7 +3488,7 @@
       <c r="B59" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="25"/>
+      <c r="C59" s="26"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
@@ -3500,7 +3497,7 @@
       <c r="B60" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="25"/>
+      <c r="C60" s="26"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
@@ -3509,7 +3506,7 @@
       <c r="B61" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="25"/>
+      <c r="C61" s="26"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
@@ -3518,7 +3515,7 @@
       <c r="B62" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="25"/>
+      <c r="C62" s="26"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
@@ -3527,7 +3524,7 @@
       <c r="B63" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="25"/>
+      <c r="C63" s="26"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
@@ -3536,7 +3533,7 @@
       <c r="B64" s="4">
         <v>2</v>
       </c>
-      <c r="C64" s="25"/>
+      <c r="C64" s="26"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
@@ -3545,7 +3542,7 @@
       <c r="B65" s="4">
         <v>17</v>
       </c>
-      <c r="C65" s="25"/>
+      <c r="C65" s="26"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
@@ -3554,7 +3551,7 @@
       <c r="B66" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="25"/>
+      <c r="C66" s="26"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
@@ -3563,7 +3560,7 @@
       <c r="B67" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="25"/>
+      <c r="C67" s="26"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
@@ -3572,7 +3569,7 @@
       <c r="B68" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="25"/>
+      <c r="C68" s="26"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
@@ -3581,7 +3578,7 @@
       <c r="B69" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="25"/>
+      <c r="C69" s="26"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
@@ -3590,15 +3587,15 @@
       <c r="B70" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="26"/>
+      <c r="C70" s="27"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="30" t="s">
+      <c r="B73" s="29"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="31" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3612,7 +3609,7 @@
       <c r="C74" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D74" s="31"/>
+      <c r="D74" s="32"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
@@ -3704,13 +3701,13 @@
       <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
@@ -3742,12 +3739,12 @@
       <c r="D87" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E87" s="33" t="s">
+      <c r="E87" s="34" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="24" t="s">
         <v>158</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -3757,10 +3754,10 @@
         <v>6315</v>
       </c>
       <c r="D88" s="5"/>
-      <c r="E88" s="33"/>
+      <c r="E88" s="34"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="23"/>
+      <c r="A89" s="24"/>
       <c r="B89" s="5" t="s">
         <v>167</v>
       </c>
@@ -3768,10 +3765,10 @@
         <v>9122</v>
       </c>
       <c r="D89" s="5"/>
-      <c r="E89" s="33"/>
+      <c r="E89" s="34"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="23"/>
+      <c r="A90" s="24"/>
       <c r="B90" s="5" t="s">
         <v>168</v>
       </c>
@@ -3779,10 +3776,10 @@
         <v>14960</v>
       </c>
       <c r="D90" s="5"/>
-      <c r="E90" s="33"/>
+      <c r="E90" s="34"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="23"/>
+      <c r="A91" s="24"/>
       <c r="B91" s="5" t="s">
         <v>169</v>
       </c>
@@ -3790,10 +3787,10 @@
         <v>18817</v>
       </c>
       <c r="D91" s="5"/>
-      <c r="E91" s="33"/>
+      <c r="E91" s="34"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="23"/>
+      <c r="A92" s="24"/>
       <c r="B92" s="5" t="s">
         <v>170</v>
       </c>
@@ -3803,10 +3800,10 @@
       <c r="D92" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E92" s="33"/>
+      <c r="E92" s="34"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="23"/>
+      <c r="A93" s="24"/>
       <c r="B93" s="5" t="s">
         <v>171</v>
       </c>
@@ -3814,10 +3811,10 @@
         <v>24142</v>
       </c>
       <c r="D93" s="5"/>
-      <c r="E93" s="33"/>
+      <c r="E93" s="34"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="23"/>
+      <c r="A94" s="24"/>
       <c r="B94" s="5" t="s">
         <v>172</v>
       </c>
@@ -3825,10 +3822,10 @@
         <v>28022</v>
       </c>
       <c r="D94" s="5"/>
-      <c r="E94" s="33"/>
+      <c r="E94" s="34"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="23"/>
+      <c r="A95" s="24"/>
       <c r="B95" s="5" t="s">
         <v>173</v>
       </c>
@@ -3836,10 +3833,10 @@
         <v>31079</v>
       </c>
       <c r="D95" s="5"/>
-      <c r="E95" s="33"/>
+      <c r="E95" s="34"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="23"/>
+      <c r="A96" s="24"/>
       <c r="B96" s="5" t="s">
         <v>126</v>
       </c>
@@ -3847,10 +3844,10 @@
         <v>33319</v>
       </c>
       <c r="D96" s="5"/>
-      <c r="E96" s="33"/>
+      <c r="E96" s="34"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="23"/>
+      <c r="A97" s="24"/>
       <c r="B97" s="5" t="s">
         <v>174</v>
       </c>
@@ -3858,10 +3855,10 @@
         <v>34527</v>
       </c>
       <c r="D97" s="5"/>
-      <c r="E97" s="33"/>
+      <c r="E97" s="34"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="23"/>
+      <c r="A98" s="24"/>
       <c r="B98" s="5" t="s">
         <v>175</v>
       </c>
@@ -3869,10 +3866,10 @@
         <v>37063</v>
       </c>
       <c r="D98" s="5"/>
-      <c r="E98" s="33"/>
+      <c r="E98" s="34"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="23"/>
+      <c r="A99" s="24"/>
       <c r="B99" s="5" t="s">
         <v>118</v>
       </c>
@@ -3882,10 +3879,10 @@
       <c r="D99" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E99" s="33"/>
+      <c r="E99" s="34"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="23"/>
+      <c r="A100" s="24"/>
       <c r="B100" s="5" t="s">
         <v>202</v>
       </c>
@@ -21074,7 +21071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C5AE42-411E-4A4C-8F24-E827112E3808}">
   <dimension ref="A2:E64"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -21084,11 +21083,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="35" t="s">
         <v>53</v>
       </c>
     </row>
@@ -21099,7 +21098,7 @@
       <c r="B3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="35"/>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -21108,7 +21107,7 @@
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="35"/>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -21117,7 +21116,7 @@
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="35"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -21126,7 +21125,7 @@
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="35"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -21135,7 +21134,7 @@
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="35"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -21144,7 +21143,7 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="35"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -21153,7 +21152,7 @@
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -21162,7 +21161,7 @@
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="35"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -21171,7 +21170,7 @@
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="35"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -21180,7 +21179,7 @@
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="35"/>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -21189,7 +21188,7 @@
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="35"/>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -21198,7 +21197,7 @@
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="35"/>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -21207,7 +21206,7 @@
       <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="35"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
@@ -21220,11 +21219,11 @@
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="34" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="35" t="s">
         <v>52</v>
       </c>
     </row>
@@ -21235,7 +21234,7 @@
       <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="35"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -21244,7 +21243,7 @@
       <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="34"/>
+      <c r="C20" s="35"/>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -21253,7 +21252,7 @@
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="35"/>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -21262,7 +21261,7 @@
       <c r="B22" s="5">
         <v>50</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="35"/>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -21271,7 +21270,7 @@
       <c r="B23" s="5">
         <v>1435</v>
       </c>
-      <c r="C23" s="34"/>
+      <c r="C23" s="35"/>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -21280,7 +21279,7 @@
       <c r="B24" s="5">
         <v>-5</v>
       </c>
-      <c r="C24" s="34"/>
+      <c r="C24" s="35"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -21289,7 +21288,7 @@
       <c r="B25" s="5">
         <v>160</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="35"/>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -21298,7 +21297,7 @@
       <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="35"/>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -21307,7 +21306,7 @@
       <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="34"/>
+      <c r="C27" s="35"/>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -21316,7 +21315,7 @@
       <c r="B28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="34"/>
+      <c r="C28" s="35"/>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
@@ -21325,7 +21324,7 @@
       <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="35"/>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -21334,7 +21333,7 @@
       <c r="B30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="34"/>
+      <c r="C30" s="35"/>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
@@ -21343,7 +21342,7 @@
       <c r="B31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="34"/>
+      <c r="C31" s="35"/>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
@@ -21352,7 +21351,7 @@
       <c r="B32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="34"/>
+      <c r="C32" s="35"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
@@ -21361,7 +21360,7 @@
       <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="34"/>
+      <c r="C33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
@@ -21370,7 +21369,7 @@
       <c r="B34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="34"/>
+      <c r="C34" s="35"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
@@ -21379,18 +21378,18 @@
       <c r="B35" s="5">
         <v>25000</v>
       </c>
-      <c r="C35" s="34"/>
+      <c r="C35" s="35"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="33" t="s">
         <v>125</v>
       </c>
     </row>
@@ -21404,8 +21403,8 @@
       <c r="C39" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
@@ -21520,13 +21519,13 @@
       <c r="E47" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
@@ -21546,7 +21545,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="24" t="s">
         <v>158</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -21563,7 +21562,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="32"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="5" t="s">
         <v>136</v>
       </c>
@@ -21578,7 +21577,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="32"/>
+      <c r="A56" s="33"/>
       <c r="B56" s="5" t="s">
         <v>137</v>
       </c>
@@ -21588,12 +21587,12 @@
       <c r="D56" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E56" s="33" t="s">
+      <c r="E56" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="32"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="5" t="s">
         <v>138</v>
       </c>
@@ -21603,10 +21602,10 @@
       <c r="D57" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E57" s="33"/>
+      <c r="E57" s="34"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="32"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="5" t="s">
         <v>139</v>
       </c>
@@ -21616,10 +21615,10 @@
       <c r="D58" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E58" s="33"/>
+      <c r="E58" s="34"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="5" t="s">
         <v>141</v>
       </c>
@@ -21627,10 +21626,10 @@
         <v>43539</v>
       </c>
       <c r="D59" s="5"/>
-      <c r="E59" s="33"/>
+      <c r="E59" s="34"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="32"/>
+      <c r="A60" s="33"/>
       <c r="B60" s="5" t="s">
         <v>140</v>
       </c>
@@ -21640,10 +21639,10 @@
       <c r="D60" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E60" s="33"/>
+      <c r="E60" s="34"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="32"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="5" t="s">
         <v>142</v>
       </c>
@@ -21653,10 +21652,10 @@
       <c r="D61" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E61" s="33"/>
+      <c r="E61" s="34"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="32"/>
+      <c r="A62" s="33"/>
       <c r="B62" s="5" t="s">
         <v>18</v>
       </c>
@@ -21664,16 +21663,16 @@
         <v>68633</v>
       </c>
       <c r="D62" s="5"/>
-      <c r="E62" s="33"/>
+      <c r="E62" s="34"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="37"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="5" t="s">
         <v>164</v>
       </c>
@@ -21685,11 +21684,11 @@
       <c r="A64" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
       <c r="E64" s="13"/>
     </row>
   </sheetData>
@@ -33359,7 +33358,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193FBB24-F3AA-41CA-A344-DB41EA9AA3AC}">
   <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -33372,11 +33373,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="35" t="s">
         <v>54</v>
       </c>
     </row>
@@ -33387,7 +33388,7 @@
       <c r="B3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="35"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -33396,7 +33397,7 @@
       <c r="B4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="35"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -33405,7 +33406,7 @@
       <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="35"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -33414,7 +33415,7 @@
       <c r="B6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="35"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -33423,7 +33424,7 @@
       <c r="B7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="35"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -33432,7 +33433,7 @@
       <c r="B8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="35"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -33441,7 +33442,7 @@
       <c r="B9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -33450,7 +33451,7 @@
       <c r="B10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="35"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -33459,7 +33460,7 @@
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="35"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -33468,7 +33469,7 @@
       <c r="B12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="35"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -33477,14 +33478,14 @@
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="35"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="35" t="s">
         <v>112</v>
       </c>
     </row>
@@ -33495,7 +33496,7 @@
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="34"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -33504,7 +33505,7 @@
       <c r="B18" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="34"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -33513,7 +33514,7 @@
       <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="34"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -33522,7 +33523,7 @@
       <c r="B20" s="5">
         <v>50</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -33531,7 +33532,7 @@
       <c r="B21" s="5">
         <v>1435</v>
       </c>
-      <c r="C21" s="33"/>
+      <c r="C21" s="34"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -33540,7 +33541,7 @@
       <c r="B22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="33"/>
+      <c r="C22" s="34"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -33549,7 +33550,7 @@
       <c r="B23" s="5">
         <v>3</v>
       </c>
-      <c r="C23" s="33"/>
+      <c r="C23" s="34"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -33558,7 +33559,7 @@
       <c r="B24" s="5">
         <v>26506</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="34"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -33567,7 +33568,7 @@
       <c r="B25" s="5">
         <v>120</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="34"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -33576,7 +33577,7 @@
       <c r="B26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="33"/>
+      <c r="C26" s="34"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -33585,7 +33586,7 @@
       <c r="B27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="33"/>
+      <c r="C27" s="34"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -33594,7 +33595,7 @@
       <c r="B28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -33604,7 +33605,7 @@
       <c r="B29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="34"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -33613,7 +33614,7 @@
       <c r="B30" s="5">
         <v>3</v>
       </c>
-      <c r="C30" s="33"/>
+      <c r="C30" s="34"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
@@ -33622,7 +33623,7 @@
       <c r="B31" s="5">
         <v>45652</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="34"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
@@ -33631,7 +33632,7 @@
       <c r="B32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="33"/>
+      <c r="C32" s="34"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
@@ -33640,18 +33641,18 @@
       <c r="B33" s="5">
         <v>25000</v>
       </c>
-      <c r="C33" s="33"/>
+      <c r="C33" s="34"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="38" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="39" t="s">
         <v>125</v>
       </c>
     </row>
@@ -33665,8 +33666,8 @@
       <c r="C37" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
@@ -33746,14 +33747,14 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
@@ -33776,7 +33777,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="39" t="s">
         <v>158</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -33794,7 +33795,7 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="39"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="5" t="s">
         <v>220</v>
       </c>
@@ -33810,7 +33811,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="39"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="5" t="s">
         <v>221</v>
       </c>
@@ -33826,7 +33827,7 @@
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="39"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="5" t="s">
         <v>207</v>
       </c>
@@ -33842,7 +33843,7 @@
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="39"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="5" t="s">
         <v>208</v>
       </c>
@@ -33856,7 +33857,7 @@
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="39"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="5" t="s">
         <v>209</v>
       </c>
@@ -33870,7 +33871,7 @@
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="5" t="s">
         <v>49</v>
       </c>
@@ -33907,7 +33908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B4763F-AF19-4342-8595-1148B658BCF0}">
   <dimension ref="A1:I547"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -48851,7 +48852,7 @@
   <dimension ref="A1:K180"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -48900,7 +48901,7 @@
       <c r="J1" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="16" t="s">
         <v>248</v>
       </c>
     </row>
@@ -48935,7 +48936,7 @@
       <c r="J2" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2" s="23">
         <v>1</v>
       </c>
     </row>
@@ -48970,7 +48971,7 @@
       <c r="J3" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="23">
         <v>2</v>
       </c>
     </row>
@@ -49005,7 +49006,7 @@
       <c r="J4" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K4" s="42">
+      <c r="K4" s="23">
         <v>3</v>
       </c>
     </row>
@@ -49040,7 +49041,7 @@
       <c r="J5" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="23">
         <v>4</v>
       </c>
     </row>
@@ -49075,7 +49076,7 @@
       <c r="J6" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="23">
         <v>5</v>
       </c>
     </row>
@@ -49110,7 +49111,7 @@
       <c r="J7" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="23">
         <v>6</v>
       </c>
     </row>
@@ -49145,7 +49146,7 @@
       <c r="J8" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="23">
         <v>7</v>
       </c>
     </row>
@@ -49180,7 +49181,7 @@
       <c r="J9" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="23">
         <v>8</v>
       </c>
     </row>
@@ -49215,7 +49216,7 @@
       <c r="J10" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="23">
         <v>9</v>
       </c>
     </row>
@@ -49250,7 +49251,7 @@
       <c r="J11" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="23">
         <v>10</v>
       </c>
     </row>
@@ -49285,7 +49286,7 @@
       <c r="J12" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="23">
         <v>11</v>
       </c>
     </row>
@@ -49320,7 +49321,7 @@
       <c r="J13" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="23">
         <v>12</v>
       </c>
     </row>
@@ -49355,7 +49356,7 @@
       <c r="J14" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="23">
         <v>13</v>
       </c>
     </row>
@@ -49390,7 +49391,7 @@
       <c r="J15" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="23">
         <v>14</v>
       </c>
     </row>
@@ -49425,7 +49426,7 @@
       <c r="J16" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="23">
         <v>15</v>
       </c>
     </row>
@@ -49460,7 +49461,7 @@
       <c r="J17" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="23">
         <v>16</v>
       </c>
     </row>
@@ -49495,7 +49496,7 @@
       <c r="J18" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="23">
         <v>17</v>
       </c>
     </row>
@@ -49530,7 +49531,7 @@
       <c r="J19" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="23">
         <v>18</v>
       </c>
     </row>
@@ -49565,7 +49566,7 @@
       <c r="J20" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="23">
         <v>19</v>
       </c>
     </row>
@@ -49600,7 +49601,7 @@
       <c r="J21" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="23">
         <v>20</v>
       </c>
     </row>
@@ -49635,7 +49636,7 @@
       <c r="J22" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="23">
         <v>21</v>
       </c>
     </row>
@@ -49670,7 +49671,7 @@
       <c r="J23" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="23">
         <v>22</v>
       </c>
     </row>
@@ -49705,7 +49706,7 @@
       <c r="J24" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K24" s="42">
+      <c r="K24" s="23">
         <v>23</v>
       </c>
     </row>
@@ -49740,7 +49741,7 @@
       <c r="J25" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="23">
         <v>24</v>
       </c>
     </row>
@@ -49775,7 +49776,7 @@
       <c r="J26" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K26" s="42">
+      <c r="K26" s="23">
         <v>25</v>
       </c>
     </row>
@@ -49810,7 +49811,7 @@
       <c r="J27" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="23">
         <v>26</v>
       </c>
     </row>
@@ -49845,7 +49846,7 @@
       <c r="J28" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K28" s="42">
+      <c r="K28" s="23">
         <v>27</v>
       </c>
     </row>
@@ -49880,7 +49881,7 @@
       <c r="J29" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K29" s="42">
+      <c r="K29" s="23">
         <v>28</v>
       </c>
     </row>
@@ -49915,7 +49916,7 @@
       <c r="J30" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="23">
         <v>29</v>
       </c>
     </row>
@@ -49950,7 +49951,7 @@
       <c r="J31" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="23">
         <v>30</v>
       </c>
     </row>
@@ -49985,7 +49986,7 @@
       <c r="J32" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K32" s="42">
+      <c r="K32" s="23">
         <v>31</v>
       </c>
     </row>
@@ -50020,7 +50021,7 @@
       <c r="J33" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K33" s="42">
+      <c r="K33" s="23">
         <v>32</v>
       </c>
     </row>
@@ -50055,7 +50056,7 @@
       <c r="J34" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K34" s="42">
+      <c r="K34" s="23">
         <v>33</v>
       </c>
     </row>
@@ -50090,7 +50091,7 @@
       <c r="J35" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K35" s="42">
+      <c r="K35" s="23">
         <v>34</v>
       </c>
     </row>
@@ -50125,7 +50126,7 @@
       <c r="J36" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K36" s="42">
+      <c r="K36" s="23">
         <v>35</v>
       </c>
     </row>
@@ -50160,7 +50161,7 @@
       <c r="J37" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K37" s="42">
+      <c r="K37" s="23">
         <v>36</v>
       </c>
     </row>
@@ -50195,7 +50196,7 @@
       <c r="J38" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K38" s="42">
+      <c r="K38" s="23">
         <v>37</v>
       </c>
     </row>
@@ -50230,7 +50231,7 @@
       <c r="J39" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K39" s="42">
+      <c r="K39" s="23">
         <v>38</v>
       </c>
     </row>
@@ -50265,7 +50266,7 @@
       <c r="J40" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K40" s="42">
+      <c r="K40" s="23">
         <v>39</v>
       </c>
     </row>
@@ -50300,7 +50301,7 @@
       <c r="J41" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K41" s="42">
+      <c r="K41" s="23">
         <v>40</v>
       </c>
     </row>
@@ -50335,7 +50336,7 @@
       <c r="J42" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K42" s="42">
+      <c r="K42" s="23">
         <v>41</v>
       </c>
     </row>
@@ -50370,7 +50371,7 @@
       <c r="J43" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K43" s="42">
+      <c r="K43" s="23">
         <v>42</v>
       </c>
     </row>
@@ -50405,7 +50406,7 @@
       <c r="J44" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="42">
+      <c r="K44" s="23">
         <v>43</v>
       </c>
     </row>
@@ -50440,7 +50441,7 @@
       <c r="J45" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K45" s="42">
+      <c r="K45" s="23">
         <v>44</v>
       </c>
     </row>
@@ -50475,7 +50476,7 @@
       <c r="J46" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K46" s="42">
+      <c r="K46" s="23">
         <v>45</v>
       </c>
     </row>
@@ -50510,7 +50511,7 @@
       <c r="J47" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K47" s="42">
+      <c r="K47" s="23">
         <v>46</v>
       </c>
     </row>
@@ -50545,7 +50546,7 @@
       <c r="J48" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K48" s="42">
+      <c r="K48" s="23">
         <v>47</v>
       </c>
     </row>
@@ -50580,7 +50581,7 @@
       <c r="J49" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K49" s="42">
+      <c r="K49" s="23">
         <v>48</v>
       </c>
     </row>
@@ -50615,7 +50616,7 @@
       <c r="J50" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K50" s="42">
+      <c r="K50" s="23">
         <v>49</v>
       </c>
     </row>
@@ -50650,7 +50651,7 @@
       <c r="J51" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K51" s="42">
+      <c r="K51" s="23">
         <v>50</v>
       </c>
     </row>
@@ -50685,7 +50686,7 @@
       <c r="J52" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K52" s="42">
+      <c r="K52" s="23">
         <v>51</v>
       </c>
     </row>
@@ -50720,7 +50721,7 @@
       <c r="J53" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K53" s="42">
+      <c r="K53" s="23">
         <v>52</v>
       </c>
     </row>
@@ -50755,7 +50756,7 @@
       <c r="J54" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K54" s="42">
+      <c r="K54" s="23">
         <v>53</v>
       </c>
     </row>
@@ -50790,7 +50791,7 @@
       <c r="J55" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K55" s="42">
+      <c r="K55" s="23">
         <v>54</v>
       </c>
     </row>
@@ -50825,7 +50826,7 @@
       <c r="J56" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K56" s="42">
+      <c r="K56" s="23">
         <v>55</v>
       </c>
     </row>
@@ -50860,7 +50861,7 @@
       <c r="J57" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K57" s="42">
+      <c r="K57" s="23">
         <v>56</v>
       </c>
     </row>
@@ -50895,7 +50896,7 @@
       <c r="J58" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K58" s="42">
+      <c r="K58" s="23">
         <v>57</v>
       </c>
     </row>
@@ -50930,7 +50931,7 @@
       <c r="J59" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K59" s="42">
+      <c r="K59" s="23">
         <v>58</v>
       </c>
     </row>
@@ -50965,7 +50966,7 @@
       <c r="J60" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K60" s="42">
+      <c r="K60" s="23">
         <v>59</v>
       </c>
     </row>
@@ -51000,7 +51001,7 @@
       <c r="J61" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K61" s="42">
+      <c r="K61" s="23">
         <v>60</v>
       </c>
     </row>
@@ -51035,7 +51036,7 @@
       <c r="J62" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K62" s="42">
+      <c r="K62" s="23">
         <v>61</v>
       </c>
     </row>
@@ -51070,7 +51071,7 @@
       <c r="J63" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K63" s="42">
+      <c r="K63" s="23">
         <v>62</v>
       </c>
     </row>
@@ -51105,7 +51106,7 @@
       <c r="J64" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K64" s="42">
+      <c r="K64" s="23">
         <v>63</v>
       </c>
     </row>
@@ -51140,7 +51141,7 @@
       <c r="J65" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K65" s="42">
+      <c r="K65" s="23">
         <v>64</v>
       </c>
     </row>
@@ -51175,7 +51176,7 @@
       <c r="J66" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K66" s="42">
+      <c r="K66" s="23">
         <v>65</v>
       </c>
     </row>
@@ -51210,7 +51211,7 @@
       <c r="J67" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K67" s="42">
+      <c r="K67" s="23">
         <v>66</v>
       </c>
     </row>
@@ -51245,7 +51246,7 @@
       <c r="J68" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K68" s="42">
+      <c r="K68" s="23">
         <v>67</v>
       </c>
     </row>
@@ -51280,7 +51281,7 @@
       <c r="J69" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K69" s="42">
+      <c r="K69" s="23">
         <v>68</v>
       </c>
     </row>
@@ -51315,7 +51316,7 @@
       <c r="J70" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K70" s="42">
+      <c r="K70" s="23">
         <v>69</v>
       </c>
     </row>
@@ -51350,7 +51351,7 @@
       <c r="J71" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K71" s="42">
+      <c r="K71" s="23">
         <v>70</v>
       </c>
     </row>
@@ -51385,7 +51386,7 @@
       <c r="J72" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K72" s="42">
+      <c r="K72" s="23">
         <v>71</v>
       </c>
     </row>
@@ -51420,7 +51421,7 @@
       <c r="J73" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K73" s="42">
+      <c r="K73" s="23">
         <v>72</v>
       </c>
     </row>
@@ -51455,7 +51456,7 @@
       <c r="J74" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K74" s="42">
+      <c r="K74" s="23">
         <v>73</v>
       </c>
     </row>
@@ -51490,7 +51491,7 @@
       <c r="J75" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K75" s="42">
+      <c r="K75" s="23">
         <v>74</v>
       </c>
     </row>
@@ -51525,7 +51526,7 @@
       <c r="J76" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K76" s="42">
+      <c r="K76" s="23">
         <v>75</v>
       </c>
     </row>
@@ -51560,7 +51561,7 @@
       <c r="J77" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K77" s="42">
+      <c r="K77" s="23">
         <v>76</v>
       </c>
     </row>
@@ -51595,7 +51596,7 @@
       <c r="J78" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K78" s="42">
+      <c r="K78" s="23">
         <v>77</v>
       </c>
     </row>
@@ -51630,7 +51631,7 @@
       <c r="J79" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K79" s="42">
+      <c r="K79" s="23">
         <v>78</v>
       </c>
     </row>
@@ -51665,7 +51666,7 @@
       <c r="J80" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K80" s="42">
+      <c r="K80" s="23">
         <v>79</v>
       </c>
     </row>
@@ -51700,7 +51701,7 @@
       <c r="J81" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K81" s="42">
+      <c r="K81" s="23">
         <v>80</v>
       </c>
     </row>
@@ -51735,7 +51736,7 @@
       <c r="J82" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K82" s="42">
+      <c r="K82" s="23">
         <v>81</v>
       </c>
     </row>
@@ -51770,7 +51771,7 @@
       <c r="J83" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K83" s="42">
+      <c r="K83" s="23">
         <v>82</v>
       </c>
     </row>
@@ -51805,7 +51806,7 @@
       <c r="J84" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K84" s="42">
+      <c r="K84" s="23">
         <v>83</v>
       </c>
     </row>
@@ -51840,7 +51841,7 @@
       <c r="J85" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K85" s="42">
+      <c r="K85" s="23">
         <v>84</v>
       </c>
     </row>
@@ -51875,7 +51876,7 @@
       <c r="J86" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K86" s="42">
+      <c r="K86" s="23">
         <v>85</v>
       </c>
     </row>
@@ -51910,7 +51911,7 @@
       <c r="J87" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K87" s="42">
+      <c r="K87" s="23">
         <v>86</v>
       </c>
     </row>
@@ -51945,7 +51946,7 @@
       <c r="J88" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K88" s="42">
+      <c r="K88" s="23">
         <v>87</v>
       </c>
     </row>
@@ -51980,7 +51981,7 @@
       <c r="J89" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K89" s="42">
+      <c r="K89" s="23">
         <v>88</v>
       </c>
     </row>
@@ -52015,7 +52016,7 @@
       <c r="J90" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K90" s="42">
+      <c r="K90" s="23">
         <v>89</v>
       </c>
     </row>
@@ -52050,7 +52051,7 @@
       <c r="J91" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K91" s="42">
+      <c r="K91" s="23">
         <v>90</v>
       </c>
     </row>
@@ -52085,7 +52086,7 @@
       <c r="J92" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K92" s="42">
+      <c r="K92" s="23">
         <v>91</v>
       </c>
     </row>
@@ -52120,7 +52121,7 @@
       <c r="J93" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K93" s="42">
+      <c r="K93" s="23">
         <v>92</v>
       </c>
     </row>
@@ -52155,7 +52156,7 @@
       <c r="J94" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K94" s="42">
+      <c r="K94" s="23">
         <v>93</v>
       </c>
     </row>
@@ -52190,7 +52191,7 @@
       <c r="J95" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K95" s="42">
+      <c r="K95" s="23">
         <v>94</v>
       </c>
     </row>
@@ -52225,7 +52226,7 @@
       <c r="J96" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K96" s="42">
+      <c r="K96" s="23">
         <v>95</v>
       </c>
     </row>
@@ -52260,7 +52261,7 @@
       <c r="J97" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K97" s="42">
+      <c r="K97" s="23">
         <v>96</v>
       </c>
     </row>
@@ -52295,7 +52296,7 @@
       <c r="J98" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K98" s="42">
+      <c r="K98" s="23">
         <v>97</v>
       </c>
     </row>
@@ -52330,7 +52331,7 @@
       <c r="J99" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K99" s="42">
+      <c r="K99" s="23">
         <v>98</v>
       </c>
     </row>
@@ -52365,7 +52366,7 @@
       <c r="J100" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K100" s="42">
+      <c r="K100" s="23">
         <v>99</v>
       </c>
     </row>
@@ -52400,7 +52401,7 @@
       <c r="J101" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K101" s="42">
+      <c r="K101" s="23">
         <v>100</v>
       </c>
     </row>
@@ -52435,7 +52436,7 @@
       <c r="J102" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K102" s="42">
+      <c r="K102" s="23">
         <v>101</v>
       </c>
     </row>
@@ -52470,7 +52471,7 @@
       <c r="J103" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K103" s="42">
+      <c r="K103" s="23">
         <v>102</v>
       </c>
     </row>
@@ -52505,7 +52506,7 @@
       <c r="J104" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K104" s="42">
+      <c r="K104" s="23">
         <v>103</v>
       </c>
     </row>
@@ -52540,7 +52541,7 @@
       <c r="J105" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K105" s="42">
+      <c r="K105" s="23">
         <v>104</v>
       </c>
     </row>
@@ -52575,7 +52576,7 @@
       <c r="J106" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K106" s="42">
+      <c r="K106" s="23">
         <v>105</v>
       </c>
     </row>
@@ -52610,7 +52611,7 @@
       <c r="J107" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K107" s="42">
+      <c r="K107" s="23">
         <v>106</v>
       </c>
     </row>
@@ -52645,7 +52646,7 @@
       <c r="J108" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K108" s="42">
+      <c r="K108" s="23">
         <v>107</v>
       </c>
     </row>
@@ -52680,7 +52681,7 @@
       <c r="J109" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K109" s="42">
+      <c r="K109" s="23">
         <v>108</v>
       </c>
     </row>
@@ -52715,7 +52716,7 @@
       <c r="J110" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K110" s="42">
+      <c r="K110" s="23">
         <v>109</v>
       </c>
     </row>
@@ -52750,7 +52751,7 @@
       <c r="J111" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K111" s="42">
+      <c r="K111" s="23">
         <v>110</v>
       </c>
     </row>
@@ -52785,7 +52786,7 @@
       <c r="J112" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K112" s="42">
+      <c r="K112" s="23">
         <v>111</v>
       </c>
     </row>
@@ -52820,7 +52821,7 @@
       <c r="J113" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K113" s="42">
+      <c r="K113" s="23">
         <v>112</v>
       </c>
     </row>
@@ -52855,7 +52856,7 @@
       <c r="J114" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K114" s="42">
+      <c r="K114" s="23">
         <v>113</v>
       </c>
     </row>
@@ -52890,7 +52891,7 @@
       <c r="J115" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K115" s="42">
+      <c r="K115" s="23">
         <v>114</v>
       </c>
     </row>
@@ -52925,7 +52926,7 @@
       <c r="J116" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K116" s="42">
+      <c r="K116" s="23">
         <v>115</v>
       </c>
     </row>
@@ -52960,7 +52961,7 @@
       <c r="J117" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K117" s="42">
+      <c r="K117" s="23">
         <v>116</v>
       </c>
     </row>
@@ -52995,7 +52996,7 @@
       <c r="J118" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K118" s="42">
+      <c r="K118" s="23">
         <v>117</v>
       </c>
     </row>
@@ -53030,7 +53031,7 @@
       <c r="J119" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K119" s="42">
+      <c r="K119" s="23">
         <v>118</v>
       </c>
     </row>
@@ -53065,7 +53066,7 @@
       <c r="J120" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K120" s="42">
+      <c r="K120" s="23">
         <v>119</v>
       </c>
     </row>
@@ -53100,7 +53101,7 @@
       <c r="J121" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K121" s="42">
+      <c r="K121" s="23">
         <v>120</v>
       </c>
     </row>
@@ -53135,7 +53136,7 @@
       <c r="J122" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K122" s="42">
+      <c r="K122" s="23">
         <v>121</v>
       </c>
     </row>
@@ -53170,7 +53171,7 @@
       <c r="J123" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K123" s="42">
+      <c r="K123" s="23">
         <v>122</v>
       </c>
     </row>
@@ -53205,7 +53206,7 @@
       <c r="J124" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K124" s="42">
+      <c r="K124" s="23">
         <v>123</v>
       </c>
     </row>
@@ -53240,7 +53241,7 @@
       <c r="J125" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K125" s="42">
+      <c r="K125" s="23">
         <v>124</v>
       </c>
     </row>
@@ -53275,7 +53276,7 @@
       <c r="J126" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K126" s="42">
+      <c r="K126" s="23">
         <v>125</v>
       </c>
     </row>
@@ -53310,7 +53311,7 @@
       <c r="J127" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K127" s="42">
+      <c r="K127" s="23">
         <v>126</v>
       </c>
     </row>
@@ -53345,7 +53346,7 @@
       <c r="J128" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K128" s="42">
+      <c r="K128" s="23">
         <v>127</v>
       </c>
     </row>
@@ -53380,7 +53381,7 @@
       <c r="J129" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K129" s="42">
+      <c r="K129" s="23">
         <v>128</v>
       </c>
     </row>
@@ -53415,7 +53416,7 @@
       <c r="J130" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K130" s="42">
+      <c r="K130" s="23">
         <v>129</v>
       </c>
     </row>
@@ -53450,7 +53451,7 @@
       <c r="J131" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K131" s="42">
+      <c r="K131" s="23">
         <v>130</v>
       </c>
     </row>
@@ -53485,7 +53486,7 @@
       <c r="J132" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K132" s="42">
+      <c r="K132" s="23">
         <v>131</v>
       </c>
     </row>
@@ -53520,7 +53521,7 @@
       <c r="J133" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K133" s="42">
+      <c r="K133" s="23">
         <v>132</v>
       </c>
     </row>
@@ -53555,7 +53556,7 @@
       <c r="J134" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K134" s="42">
+      <c r="K134" s="23">
         <v>133</v>
       </c>
     </row>
@@ -53590,7 +53591,7 @@
       <c r="J135" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K135" s="42">
+      <c r="K135" s="23">
         <v>134</v>
       </c>
     </row>
@@ -53625,7 +53626,7 @@
       <c r="J136" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K136" s="42">
+      <c r="K136" s="23">
         <v>135</v>
       </c>
     </row>
@@ -53660,7 +53661,7 @@
       <c r="J137" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K137" s="42">
+      <c r="K137" s="23">
         <v>136</v>
       </c>
     </row>
@@ -53695,7 +53696,7 @@
       <c r="J138" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K138" s="42">
+      <c r="K138" s="23">
         <v>137</v>
       </c>
     </row>
@@ -53730,7 +53731,7 @@
       <c r="J139" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K139" s="42">
+      <c r="K139" s="23">
         <v>138</v>
       </c>
     </row>
@@ -53765,7 +53766,7 @@
       <c r="J140" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K140" s="42">
+      <c r="K140" s="23">
         <v>139</v>
       </c>
     </row>
@@ -53800,7 +53801,7 @@
       <c r="J141" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K141" s="42">
+      <c r="K141" s="23">
         <v>140</v>
       </c>
     </row>
@@ -53835,7 +53836,7 @@
       <c r="J142" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K142" s="42">
+      <c r="K142" s="23">
         <v>141</v>
       </c>
     </row>
@@ -53870,7 +53871,7 @@
       <c r="J143" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K143" s="42">
+      <c r="K143" s="23">
         <v>142</v>
       </c>
     </row>
@@ -53905,7 +53906,7 @@
       <c r="J144" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K144" s="42">
+      <c r="K144" s="23">
         <v>143</v>
       </c>
     </row>
@@ -53940,7 +53941,7 @@
       <c r="J145" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K145" s="42">
+      <c r="K145" s="23">
         <v>144</v>
       </c>
     </row>
@@ -53975,7 +53976,7 @@
       <c r="J146" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K146" s="42">
+      <c r="K146" s="23">
         <v>145</v>
       </c>
     </row>
@@ -54010,7 +54011,7 @@
       <c r="J147" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K147" s="42">
+      <c r="K147" s="23">
         <v>146</v>
       </c>
     </row>
@@ -54045,7 +54046,7 @@
       <c r="J148" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K148" s="42">
+      <c r="K148" s="23">
         <v>147</v>
       </c>
     </row>
@@ -54080,7 +54081,7 @@
       <c r="J149" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K149" s="42">
+      <c r="K149" s="23">
         <v>148</v>
       </c>
     </row>
@@ -54115,7 +54116,7 @@
       <c r="J150" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K150" s="42">
+      <c r="K150" s="23">
         <v>149</v>
       </c>
     </row>
@@ -54150,7 +54151,7 @@
       <c r="J151" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K151" s="42">
+      <c r="K151" s="23">
         <v>150</v>
       </c>
     </row>
@@ -54185,7 +54186,7 @@
       <c r="J152" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K152" s="42">
+      <c r="K152" s="23">
         <v>151</v>
       </c>
     </row>
@@ -54220,7 +54221,7 @@
       <c r="J153" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K153" s="42">
+      <c r="K153" s="23">
         <v>152</v>
       </c>
     </row>
@@ -54255,7 +54256,7 @@
       <c r="J154" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K154" s="42">
+      <c r="K154" s="23">
         <v>153</v>
       </c>
     </row>
@@ -54290,7 +54291,7 @@
       <c r="J155" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K155" s="42">
+      <c r="K155" s="23">
         <v>154</v>
       </c>
     </row>
@@ -54325,7 +54326,7 @@
       <c r="J156" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K156" s="42">
+      <c r="K156" s="23">
         <v>155</v>
       </c>
     </row>
@@ -54360,7 +54361,7 @@
       <c r="J157" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K157" s="42">
+      <c r="K157" s="23">
         <v>156</v>
       </c>
     </row>
@@ -54395,7 +54396,7 @@
       <c r="J158" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K158" s="42">
+      <c r="K158" s="23">
         <v>157</v>
       </c>
     </row>
@@ -54430,7 +54431,7 @@
       <c r="J159" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K159" s="42">
+      <c r="K159" s="23">
         <v>158</v>
       </c>
     </row>
@@ -54465,7 +54466,7 @@
       <c r="J160" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K160" s="42">
+      <c r="K160" s="23">
         <v>159</v>
       </c>
     </row>
@@ -54500,7 +54501,7 @@
       <c r="J161" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K161" s="42">
+      <c r="K161" s="23">
         <v>160</v>
       </c>
     </row>
@@ -54535,7 +54536,7 @@
       <c r="J162" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K162" s="42">
+      <c r="K162" s="23">
         <v>161</v>
       </c>
     </row>
@@ -54570,7 +54571,7 @@
       <c r="J163" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K163" s="42">
+      <c r="K163" s="23">
         <v>162</v>
       </c>
     </row>
@@ -54605,7 +54606,7 @@
       <c r="J164" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K164" s="42">
+      <c r="K164" s="23">
         <v>163</v>
       </c>
     </row>
@@ -54640,7 +54641,7 @@
       <c r="J165" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K165" s="42">
+      <c r="K165" s="23">
         <v>164</v>
       </c>
     </row>
@@ -54675,7 +54676,7 @@
       <c r="J166" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K166" s="42">
+      <c r="K166" s="23">
         <v>165</v>
       </c>
     </row>
@@ -54710,7 +54711,7 @@
       <c r="J167" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K167" s="42">
+      <c r="K167" s="23">
         <v>166</v>
       </c>
     </row>
@@ -54745,7 +54746,7 @@
       <c r="J168" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K168" s="42">
+      <c r="K168" s="23">
         <v>167</v>
       </c>
     </row>
@@ -54780,7 +54781,7 @@
       <c r="J169" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K169" s="42">
+      <c r="K169" s="23">
         <v>168</v>
       </c>
     </row>
@@ -54815,7 +54816,7 @@
       <c r="J170" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K170" s="42">
+      <c r="K170" s="23">
         <v>169</v>
       </c>
     </row>
@@ -54850,7 +54851,7 @@
       <c r="J171" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K171" s="42">
+      <c r="K171" s="23">
         <v>170</v>
       </c>
     </row>
@@ -54885,7 +54886,7 @@
       <c r="J172" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K172" s="42">
+      <c r="K172" s="23">
         <v>171</v>
       </c>
     </row>
@@ -54920,7 +54921,7 @@
       <c r="J173" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K173" s="42">
+      <c r="K173" s="23">
         <v>172</v>
       </c>
     </row>
@@ -54955,7 +54956,7 @@
       <c r="J174" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K174" s="42">
+      <c r="K174" s="23">
         <v>173</v>
       </c>
     </row>
@@ -54990,7 +54991,7 @@
       <c r="J175" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K175" s="42">
+      <c r="K175" s="23">
         <v>174</v>
       </c>
     </row>
@@ -55025,7 +55026,7 @@
       <c r="J176" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K176" s="42">
+      <c r="K176" s="23">
         <v>175</v>
       </c>
     </row>
@@ -55060,7 +55061,7 @@
       <c r="J177" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K177" s="42">
+      <c r="K177" s="23">
         <v>176</v>
       </c>
     </row>
@@ -55095,7 +55096,7 @@
       <c r="J178" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K178" s="42">
+      <c r="K178" s="23">
         <v>177</v>
       </c>
     </row>
@@ -55130,7 +55131,7 @@
       <c r="J179" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K179" s="42">
+      <c r="K179" s="23">
         <v>178</v>
       </c>
     </row>
@@ -55165,7 +55166,7 @@
       <c r="J180" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K180" s="42">
+      <c r="K180" s="23">
         <v>179</v>
       </c>
     </row>
